--- a/target/test-classes/dataFile/testdata.xlsx
+++ b/target/test-classes/dataFile/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder\Assignment\src\test\resources\dataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43A1E34-68CC-4045-832D-84FC25AF4542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7E7F6F-AF2D-4308-9BBF-0BAABB67C4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Raman</t>
   </si>
@@ -112,10 +112,16 @@
     <t>o/p.l#gmail?com</t>
   </si>
   <si>
-    <t>ABUCJJ</t>
-  </si>
-  <si>
     <t>!@UGUF789</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7894512312</t>
+  </si>
+  <si>
+    <t>7ABUCJJ</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,8 +515,8 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
-        <v>91</v>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
@@ -526,8 +532,8 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
-        <v>91</v>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
@@ -579,11 +585,11 @@
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1">
-        <v>91</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7894512312</v>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>26</v>
@@ -596,14 +602,14 @@
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -620,9 +626,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
-  <ignoredErrors>
-    <ignoredError sqref="C2 D2:D4 C5:C6" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
